--- a/hourly datasets/cap_gen_year8final.xlsx
+++ b/hourly datasets/cap_gen_year8final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1171823990343738</v>
+        <v>0.1091913487489628</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0006209743836692002</v>
+        <v>0.0009854299110004132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002929422872022947</v>
+        <v>0.0006028888738933282</v>
       </c>
       <c r="D3" t="n">
-        <v>1.623792773009315</v>
+        <v>2.685025599725442</v>
       </c>
       <c r="E3" t="n">
-        <v>0.113487822866919</v>
+        <v>0.03361803466634936</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006362690134278638</v>
+        <v>-0.0001962145869844516</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005120741366940234</v>
+        <v>0.002167074408985278</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1165614246507046</v>
+        <v>0.1101767786599632</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003060958958141579</v>
+        <v>0.003935888123484659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004797751358082263</v>
+        <v>0.0007872987802729581</v>
       </c>
       <c r="D4" t="n">
-        <v>3.649071041685541</v>
+        <v>6.667158002802142</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2602478696180669</v>
+        <v>0.003537204147278652</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.005983844132398685</v>
+        <v>0.002392805748794179</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01156402797156291</v>
+        <v>0.00547897049817514</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1202433579925153</v>
+        <v>0.1131272368724475</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00847358123154518</v>
+        <v>0.02650423746560686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006687011476269896</v>
+        <v>0.002489326866170128</v>
       </c>
       <c r="D5" t="n">
-        <v>2.103984594937538</v>
+        <v>6.452221631962049</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1954162576047618</v>
+        <v>0.07768363634760145</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.004233278173145887</v>
+        <v>0.02162523137050652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02074502770397993</v>
+        <v>0.03138324356070719</v>
       </c>
       <c r="H5" t="n">
-        <v>0.125655980265919</v>
+        <v>0.1356955862145697</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01140458478239669</v>
+        <v>0.01988169661436327</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005101309659859108</v>
+        <v>0.005444077335867433</v>
       </c>
       <c r="D6" t="n">
-        <v>3.277703696824202</v>
+        <v>11.08158842970941</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05775761650948848</v>
+        <v>1.332911468687208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01187741516639336</v>
+        <v>0.01140182660941717</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01856652543115148</v>
+        <v>0.02471725590873134</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1285869838167704</v>
+        <v>0.1290730453633261</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01294072184501777</v>
+        <v>0.02098194099884119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00475806362668166</v>
+        <v>0.004253655616108088</v>
       </c>
       <c r="D7" t="n">
-        <v>2.469534919799133</v>
+        <v>8.636604860668449</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3544906813180378</v>
+        <v>1.659411784207089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004987220977235339</v>
+        <v>0.01533784614925345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01852052819839779</v>
+        <v>0.02189136986054296</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1301231208793915</v>
+        <v>0.130173289747804</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009611792132380614</v>
+        <v>0.0228378391251201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003094292792042712</v>
+        <v>0.007368305767175895</v>
       </c>
       <c r="D8" t="n">
-        <v>2.211030692264641</v>
+        <v>7.557104766641293</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1234051635349858</v>
+        <v>0.9676101786785197</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003752223589321908</v>
+        <v>0.01046135403391491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01524299191718115</v>
+        <v>0.03198799956951644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1267941911667544</v>
+        <v>0.1320291878740829</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008909371156149752</v>
+        <v>0.02096376951030274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004364573672816324</v>
+        <v>0.005214021207959268</v>
       </c>
       <c r="D9" t="n">
-        <v>1.566032566033714</v>
+        <v>6.301115715123297</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04584564391490994</v>
+        <v>-0.3137528502914522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01069744515487345</v>
+        <v>0.01064657324359553</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01681296142454401</v>
+        <v>0.03224863730684674</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1260917701905235</v>
+        <v>0.1301551182592655</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1171823990343738</v>
+        <v>-0.1091913487489628</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001801618595030592</v>
+        <v>0.0004767988107199411</v>
       </c>
       <c r="D10" t="n">
-        <v>-120.1045697513716</v>
+        <v>-249.3586948838788</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002175165304619055</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1207136562040716</v>
+        <v>-0.1101258604003756</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1136511418646759</v>
+        <v>-0.10825683709755</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05809659599738178</v>
+        <v>-0.0528751330904876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001944878389154309</v>
+        <v>0.0005292070887306327</v>
       </c>
       <c r="D11" t="n">
-        <v>-48.72498894235795</v>
+        <v>-108.5848568568342</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01441412009245591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06190864326820362</v>
+        <v>-0.05391236345087293</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05428454872655995</v>
+        <v>-0.05183790273010225</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05908580303699198</v>
+        <v>0.0563162156584752</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04853334428926107</v>
+        <v>-0.04366087723330451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001933502140304922</v>
+        <v>0.0005180258353594512</v>
       </c>
       <c r="D12" t="n">
-        <v>-41.16879941140192</v>
+        <v>-92.30332911555946</v>
       </c>
       <c r="E12" t="n">
-        <v>0.003689150499725794</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05232309427551248</v>
+        <v>-0.04467619263060073</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04474359430300963</v>
+        <v>-0.04264556183600827</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06864905474511269</v>
+        <v>0.0655304715156583</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03975911821245481</v>
+        <v>-0.03488582232905705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001892128533873457</v>
+        <v>0.0005178311534766518</v>
       </c>
       <c r="D13" t="n">
-        <v>-35.12664170202275</v>
+        <v>-73.61710702451802</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0111420553262237</v>
+        <v>5.448261668049044e-140</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0434677751605684</v>
+        <v>-0.03590075613745741</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0360504612643412</v>
+        <v>-0.0338708885206567</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07742328082191895</v>
+        <v>0.07430552641990576</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03285195891664579</v>
+        <v>-0.02877643975630819</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00188331675161085</v>
+        <v>0.0005127792053244617</v>
       </c>
       <c r="D14" t="n">
-        <v>-29.17555801182506</v>
+        <v>-61.33441041010578</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02674280263112877</v>
+        <v>1.745812073781344e-88</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03654334472958491</v>
+        <v>-0.0297814719071508</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02916057310370668</v>
+        <v>-0.0277714076054656</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08433044011772797</v>
+        <v>0.08041490899265462</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02879504036378425</v>
+        <v>-0.02547589283007735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001866275409265755</v>
+        <v>0.0005017653476739876</v>
       </c>
       <c r="D15" t="n">
-        <v>-25.70474332647103</v>
+        <v>-54.58470276923666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02270247118784357</v>
+        <v>6.997914420254437e-81</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03245302793284566</v>
+        <v>-0.02645933815217735</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02513705279472284</v>
+        <v>-0.02449244750797735</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08838735867058951</v>
+        <v>0.08371545591888545</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02551930193452466</v>
+        <v>-0.02202276095727048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001823045126446205</v>
+        <v>0.0004855716541014519</v>
       </c>
       <c r="D16" t="n">
-        <v>-23.47947098594904</v>
+        <v>-48.26008902853155</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02102353552882792</v>
+        <v>5.623062054799897e-56</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02909255821424414</v>
+        <v>-0.02297446714603547</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02194604565480516</v>
+        <v>-0.0210710547685055</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0916630970998491</v>
+        <v>0.08716858779169233</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02431089640358565</v>
+        <v>-0.02004598668722535</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001877045250781669</v>
+        <v>0.000491029821602661</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.73730036250211</v>
+        <v>-45.16204731212775</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03025159910764157</v>
+        <v>5.222365677969192e-43</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02799000390464729</v>
+        <v>-0.02100839071438473</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02063178890252397</v>
+        <v>-0.01908358266006597</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09287150263078811</v>
+        <v>0.08914536206173745</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02134985649895369</v>
+        <v>-0.01786820924099072</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001858373485424102</v>
+        <v>0.0004920378398745155</v>
       </c>
       <c r="D18" t="n">
-        <v>-20.17992954172603</v>
+        <v>-41.58578398448616</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02352160404893384</v>
+        <v>3.874891513046624e-15</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02499235856804141</v>
+        <v>-0.01883258896619654</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01770735442986598</v>
+        <v>-0.0169038295157849</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09583254253542008</v>
+        <v>0.09132313950797208</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01777761789408113</v>
+        <v>-0.01470331996552723</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001875984996767354</v>
+        <v>0.0004903304692321634</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.03521455033972</v>
+        <v>-33.8443242571284</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04438299938557389</v>
+        <v>1.64621664191561e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02145463607938238</v>
+        <v>-0.01566435327421402</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01410059970877988</v>
+        <v>-0.01374228665684043</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09940478114029264</v>
+        <v>0.09448802878343557</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01324631691108168</v>
+        <v>-0.01065626695793656</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00187976097450162</v>
+        <v>0.0004956313016521517</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.18638945195574</v>
+        <v>-25.47754020378267</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04883749257074313</v>
+        <v>0.004279245585914595</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01693073514193466</v>
+        <v>-0.01162768975627339</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009561898680228706</v>
+        <v>-0.009684844159599726</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1039360821232921</v>
+        <v>0.09853508179102624</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01028422785145861</v>
+        <v>-0.007988251220895115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00187543314401356</v>
+        <v>0.0004927054632112454</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.54599695993056</v>
+        <v>-20.33836347027061</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05076474804903805</v>
+        <v>0.00131753361410921</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01396016418945633</v>
+        <v>-0.00895393943423305</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006608291513460892</v>
+        <v>-0.007022563007557176</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1068981711829151</v>
+        <v>0.1012030975280677</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007426661795547712</v>
+        <v>-0.005775668022305657</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001882138813286076</v>
+        <v>0.0004914554002835138</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.147716351686714</v>
+        <v>-13.42616193226208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08985065138377979</v>
+        <v>0.0002619564647668758</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01111574106697552</v>
+        <v>-0.006738906154956975</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.003737582524119904</v>
+        <v>-0.004812429889654342</v>
       </c>
       <c r="H22" t="n">
-        <v>0.109755737238826</v>
+        <v>0.1034156807266571</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.006316330261377782</v>
+        <v>-0.004313199833853258</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001879895214110653</v>
+        <v>0.0004801639690351765</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.22738086288813</v>
+        <v>-10.35370304343755</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06965612444002726</v>
+        <v>0.002674923463819643</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01000101508653655</v>
+        <v>-0.005254307093407575</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.002631645436219025</v>
+        <v>-0.003372092574298942</v>
       </c>
       <c r="H23" t="n">
-        <v>0.110866068772996</v>
+        <v>0.1048781489151095</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003657348041710301</v>
+        <v>-0.003070087294016485</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001881380487902242</v>
+        <v>0.0004693697735550044</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.922643642948167</v>
+        <v>-7.098484150923641</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1427413349520838</v>
+        <v>0.03782299052160111</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007344946898965379</v>
+        <v>-0.003990038252725574</v>
       </c>
       <c r="G24" t="n">
-        <v>3.025081554477784e-05</v>
+        <v>-0.002150136335307397</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1135250509926635</v>
+        <v>0.1061212614549463</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0006959668120246275</v>
+        <v>2.84867595089066e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001871280316098515</v>
+        <v>0.00045677177231251</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.381689343334619</v>
+        <v>-0.8150473263749366</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1301323983466479</v>
+        <v>0.007877718794070402</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.004363745066040223</v>
+        <v>-0.0008924105790949325</v>
       </c>
       <c r="G25" t="n">
-        <v>0.002971811441990968</v>
+        <v>0.0008981079309967138</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1164864322223491</v>
+        <v>0.1091941974249137</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02969317888051421</v>
+        <v>0.06281043418110417</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002630520160128355</v>
+        <v>0.002046119153107167</v>
       </c>
       <c r="D26" t="n">
-        <v>12.50691880126754</v>
+        <v>36.62867490882466</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03144798648280064</v>
+        <v>-0.01676988363492653</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03428268185559054</v>
+        <v>0.0906521286725087</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03472558499945173</v>
+        <v>0.06670996964412516</v>
       </c>
       <c r="H26" t="n">
-        <v>0.146875577914888</v>
+        <v>0.172001782930067</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year8final.xlsx
+++ b/hourly datasets/cap_gen_year8final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1091913487489628</v>
+        <v>0.108960508758619</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009854299110004132</v>
+        <v>-0.0008731479033817952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006028888738933282</v>
+        <v>0.0006009130474842988</v>
       </c>
       <c r="D3" t="n">
-        <v>2.685025599725442</v>
+        <v>1.256899150255586</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03361803466634936</v>
+        <v>0.02647057138584771</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0001962145869844516</v>
+        <v>-0.002050919901744343</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002167074408985278</v>
+        <v>0.0003046240949807538</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1101767786599632</v>
+        <v>0.1080873608552372</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003935888123484659</v>
+        <v>-0.000436302837103722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007872987802729581</v>
+        <v>0.0007631342299283335</v>
       </c>
       <c r="D4" t="n">
-        <v>6.667158002802142</v>
+        <v>4.282355226223713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003537204147278652</v>
+        <v>0.06551684883577925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002392805748794179</v>
+        <v>-0.00193202351038658</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00547897049817514</v>
+        <v>0.001059417836179136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1131272368724475</v>
+        <v>0.1085242059215152</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02650423746560686</v>
+        <v>0.01258332238380476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002489326866170128</v>
+        <v>0.002011542183057437</v>
       </c>
       <c r="D5" t="n">
-        <v>6.452221631962049</v>
+        <v>5.524800815194411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07768363634760145</v>
+        <v>0.152378243214764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02162523137050652</v>
+        <v>0.008640759294781024</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03138324356070719</v>
+        <v>0.01652588547282849</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1356955862145697</v>
+        <v>0.1215438311424237</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01988169661436327</v>
+        <v>0.01492737224860508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005444077335867433</v>
+        <v>0.00534576150642731</v>
       </c>
       <c r="D6" t="n">
-        <v>11.08158842970941</v>
+        <v>10.24915892959109</v>
       </c>
       <c r="E6" t="n">
-        <v>1.332911468687208</v>
+        <v>1.350547334145965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01140182660941717</v>
+        <v>0.006656232617665787</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02471725590873134</v>
+        <v>0.01952599305391494</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1290730453633261</v>
+        <v>0.123887881007224</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02098194099884119</v>
+        <v>0.01528291613885521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004253655616108088</v>
+        <v>0.00579907570733824</v>
       </c>
       <c r="D7" t="n">
-        <v>8.636604860668449</v>
+        <v>7.423218979285876</v>
       </c>
       <c r="E7" t="n">
-        <v>1.659411784207089</v>
+        <v>1.732161844287567</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01533784614925345</v>
+        <v>0.006624969181649356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02189136986054296</v>
+        <v>0.01917965225358009</v>
       </c>
       <c r="H7" t="n">
-        <v>0.130173289747804</v>
+        <v>0.1242434248974742</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0228378391251201</v>
+        <v>0.01868459335638966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007368305767175895</v>
+        <v>0.00557025074700781</v>
       </c>
       <c r="D8" t="n">
-        <v>7.557104766641293</v>
+        <v>7.544777979492432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9676101786785197</v>
+        <v>0.9960186186528927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01046135403391491</v>
+        <v>0.009848738546022225</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03198799956951644</v>
+        <v>0.02426610801624585</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1320291878740829</v>
+        <v>0.1276451021150086</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02096376951030274</v>
+        <v>0.01786731553022326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005214021207959268</v>
+        <v>0.003752691190239119</v>
       </c>
       <c r="D9" t="n">
-        <v>6.301115715123297</v>
+        <v>6.385593880303846</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3137528502914522</v>
+        <v>-0.2734525807555979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01064657324359553</v>
+        <v>0.01043027290515382</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03224863730684674</v>
+        <v>0.02624312929886444</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1301551182592655</v>
+        <v>0.1268278242888422</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1091913487489628</v>
+        <v>-0.108960508758619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004767988107199411</v>
+        <v>0.0004781941716759832</v>
       </c>
       <c r="D10" t="n">
-        <v>-249.3586948838788</v>
+        <v>-250.277808773798</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1101258604003756</v>
+        <v>-0.109897755298714</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.10825683709755</v>
+        <v>-0.1080232622185239</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0528751330904876</v>
+        <v>-0.05233527855308062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005292070887306327</v>
+        <v>0.0005297699913004183</v>
       </c>
       <c r="D11" t="n">
-        <v>-108.5848568568342</v>
+        <v>-108.2820332391496</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05391236345087293</v>
+        <v>-0.0533736122172789</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05183790273010225</v>
+        <v>-0.05129694488888235</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0563162156584752</v>
+        <v>0.05662523020553833</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04366087723330451</v>
+        <v>-0.04374878125029984</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005180258353594512</v>
+        <v>0.0005201806890097762</v>
       </c>
       <c r="D12" t="n">
-        <v>-92.30332911555946</v>
+        <v>-92.16964086989177</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.381872559636551e-296</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04467619263060073</v>
+        <v>-0.04476832012079251</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04264556183600827</v>
+        <v>-0.0427292423798072</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0655304715156583</v>
+        <v>0.06521172750831912</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03488582232905705</v>
+        <v>-0.03471699029372898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005178311534766518</v>
+        <v>0.0005162046204719783</v>
       </c>
       <c r="D13" t="n">
-        <v>-73.61710702451802</v>
+        <v>-74.11876584314584</v>
       </c>
       <c r="E13" t="n">
-        <v>5.448261668049044e-140</v>
+        <v>2.621552076739051e-105</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03590075613745741</v>
+        <v>-0.03572873617487089</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0338708885206567</v>
+        <v>-0.03370524441258708</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07430552641990576</v>
+        <v>0.07424351846488997</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02877643975630819</v>
+        <v>-0.02850253591111851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005127792053244617</v>
+        <v>0.0005128592587336577</v>
       </c>
       <c r="D14" t="n">
-        <v>-61.33441041010578</v>
+        <v>-61.33628985276779</v>
       </c>
       <c r="E14" t="n">
-        <v>1.745812073781344e-88</v>
+        <v>8.133990079622996e-90</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0297814719071508</v>
+        <v>-0.029507724992638</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0277714076054656</v>
+        <v>-0.02749734682959903</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08041490899265462</v>
+        <v>0.08045797284750045</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02547589283007735</v>
+        <v>-0.02478757899365764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005017653476739876</v>
+        <v>0.0005028761309254753</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.58470276923666</v>
+        <v>-53.96381156048692</v>
       </c>
       <c r="E15" t="n">
-        <v>6.997914420254437e-81</v>
+        <v>1.781173694126261e-83</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02645933815217735</v>
+        <v>-0.02577320144233726</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02449244750797735</v>
+        <v>-0.02380195654497801</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08371545591888545</v>
+        <v>0.08417292976496132</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02202276095727048</v>
+        <v>-0.02128794727097236</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004855716541014519</v>
+        <v>0.0004864671488712188</v>
       </c>
       <c r="D16" t="n">
-        <v>-48.26008902853155</v>
+        <v>-47.17925026267191</v>
       </c>
       <c r="E16" t="n">
-        <v>5.623062054799897e-56</v>
+        <v>8.095370797773481e-27</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02297446714603547</v>
+        <v>-0.02224140862384734</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0210710547685055</v>
+        <v>-0.02033448591809737</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08716858779169233</v>
+        <v>0.0876725614876466</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02004598668722535</v>
+        <v>-0.01966195480794956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000491029821602661</v>
+        <v>0.0004938050364072822</v>
       </c>
       <c r="D17" t="n">
-        <v>-45.16204731212775</v>
+        <v>-44.91132664135941</v>
       </c>
       <c r="E17" t="n">
-        <v>5.222365677969192e-43</v>
+        <v>2.15702884633548e-21</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02100839071438473</v>
+        <v>-0.02062979819467948</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01908358266006597</v>
+        <v>-0.01869411142121964</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08914536206173745</v>
+        <v>0.08929855395066941</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01786820924099072</v>
+        <v>-0.01728526868905884</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004920378398745155</v>
+        <v>0.0004934991980357841</v>
       </c>
       <c r="D18" t="n">
-        <v>-41.58578398448616</v>
+        <v>-41.50037415151834</v>
       </c>
       <c r="E18" t="n">
-        <v>3.874891513046624e-15</v>
+        <v>1.436121614549276e-16</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01883258896619654</v>
+        <v>-0.01825251265098833</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0169038295157849</v>
+        <v>-0.01631802472712935</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09132313950797208</v>
+        <v>0.09167524006956011</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01470331996552723</v>
+        <v>-0.01438141630854387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004903304692321634</v>
+        <v>0.000491982906973461</v>
       </c>
       <c r="D19" t="n">
-        <v>-33.8443242571284</v>
+        <v>-33.82925893646969</v>
       </c>
       <c r="E19" t="n">
-        <v>1.64621664191561e-05</v>
+        <v>2.24527364567178e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01566435327421402</v>
+        <v>-0.01534568836315069</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01374228665684043</v>
+        <v>-0.01341714425393704</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09448802878343557</v>
+        <v>0.09457909245007509</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01065626695793656</v>
+        <v>-0.01029359200990405</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004956313016521517</v>
+        <v>0.000496785798031851</v>
       </c>
       <c r="D20" t="n">
-        <v>-25.47754020378267</v>
+        <v>-25.23387158171542</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004279245585914595</v>
+        <v>0.002471507953722761</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01162768975627339</v>
+        <v>-0.01126727760932018</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009684844159599726</v>
+        <v>-0.009319906410487922</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09853508179102624</v>
+        <v>0.09866691674871492</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007988251220895115</v>
+        <v>-0.007804999193006331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004927054632112454</v>
+        <v>0.0004954515929971777</v>
       </c>
       <c r="D21" t="n">
-        <v>-20.33836347027061</v>
+        <v>-20.37622896967524</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00131753361410921</v>
+        <v>0.0001404239171864035</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00895393943423305</v>
+        <v>-0.008776069763746933</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007022563007557176</v>
+        <v>-0.006833928622265729</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1012030975280677</v>
+        <v>0.1011555095656126</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005775668022305657</v>
+        <v>-0.005597043825504338</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004914554002835138</v>
+        <v>0.0004928627454326575</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.42616193226208</v>
+        <v>-13.42849232924436</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0002619564647668758</v>
+        <v>0.001907656970739852</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006738906154956975</v>
+        <v>-0.006563040331072788</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004812429889654342</v>
+        <v>-0.004631047319935887</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1034156807266571</v>
+        <v>0.1033634649331146</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004313199833853258</v>
+        <v>-0.004388848270872566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004801639690351765</v>
+        <v>0.0004821921479922708</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.35370304343755</v>
+        <v>-10.73811140943864</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002674923463819643</v>
+        <v>0.001756928929192083</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005254307093407575</v>
+        <v>-0.005333930723416871</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003372092574298942</v>
+        <v>-0.00344376581832826</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1048781489151095</v>
+        <v>0.1045716604877464</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003070087294016485</v>
+        <v>-0.003313540257277623</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004693697735550044</v>
+        <v>0.0004715023783543601</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.098484150923641</v>
+        <v>-7.429094094803114</v>
       </c>
       <c r="E24" t="n">
-        <v>0.03782299052160111</v>
+        <v>0.01578421645768384</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.003990038252725574</v>
+        <v>-0.004237671079959166</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.002150136335307397</v>
+        <v>-0.002389409434596079</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1061212614549463</v>
+        <v>0.1056469685013413</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.84867595089066e-06</v>
+        <v>0.0001752603023973525</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00045677177231251</v>
+        <v>0.0004596743620658671</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.8150473263749366</v>
+        <v>-0.1488014289044853</v>
       </c>
       <c r="E25" t="n">
-        <v>0.007877718794070402</v>
+        <v>0.1318415694199747</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0008924105790949325</v>
+        <v>-0.0007256879579750394</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0008981079309967138</v>
+        <v>0.001076208562769744</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1091941974249137</v>
+        <v>0.1091357690610163</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.06281043418110417</v>
+        <v>0.05882108239898147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002046119153107167</v>
+        <v>0.002512385284316276</v>
       </c>
       <c r="D26" t="n">
-        <v>36.62867490882466</v>
+        <v>36.42402254494349</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01676988363492653</v>
+        <v>0.005712042173967636</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0906521286725087</v>
+        <v>0.09470863444223526</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06670996964412516</v>
+        <v>0.06353561043380358</v>
       </c>
       <c r="H26" t="n">
-        <v>0.172001782930067</v>
+        <v>0.1677815911576004</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year8final.xlsx
+++ b/hourly datasets/cap_gen_year8final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,547 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.108960508758619</v>
+        <v>0.1305036716771028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0008731479033817952</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006009130474842988</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.256899150255586</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.02647057138584771</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.002050919901744343</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.0003046240949807538</v>
-      </c>
+        <v>0.09838308259358795</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1080873608552372</v>
+        <v>0.2288867542706908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.000436302837103722</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0007631342299283335</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.282355226223713</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06551684883577925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.00193202351038658</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.001059417836179136</v>
-      </c>
+        <v>0.08021191534245224</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1085242059215152</v>
+        <v>0.2107155870195551</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01258332238380476</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.002011542183057437</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.524800815194411</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.152378243214764</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.008640759294781024</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01652588547282849</v>
-      </c>
+        <v>0.05800513814368875</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1215438311424237</v>
+        <v>0.1885088098207916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01492737224860508</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.00534576150642731</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.24915892959109</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.350547334145965</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.006656232617665787</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01952599305391494</v>
-      </c>
+        <v>0.03639854486265741</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.123887881007224</v>
+        <v>0.1669022165397602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01528291613885521</v>
+        <v>0.01147128522944583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00579907570733824</v>
+        <v>0.0007874520103771021</v>
       </c>
       <c r="D7" t="n">
-        <v>7.423218979285876</v>
+        <v>2.399095600353826</v>
       </c>
       <c r="E7" t="n">
-        <v>1.732161844287567</v>
+        <v>0.00755569853725517</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006624969181649356</v>
+        <v>0.009926574635608422</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01917965225358009</v>
+        <v>0.01301599582328293</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1242434248974742</v>
+        <v>0.1419749569065487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01868459335638966</v>
+        <v>0.009159265819842367</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00557025074700781</v>
+        <v>0.0005092183895123672</v>
       </c>
       <c r="D8" t="n">
-        <v>7.544777979492432</v>
+        <v>3.235317713377257</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9960186186528927</v>
+        <v>0.003595006616524872</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009848738546022225</v>
+        <v>0.008159802876804843</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02426610801624585</v>
+        <v>0.01015872876287996</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1276451021150086</v>
+        <v>0.1396629374969452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01786731553022326</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.003752691190239119</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.385593880303846</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.2734525807555979</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01043027290515382</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02624312929886444</v>
-      </c>
+        <v>0.005770630788543214</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.1268278242888422</v>
+        <v>0.136274302465646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.108960508758619</v>
+        <v>0.004385388120739157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004781941716759832</v>
+        <v>0.0004656168060753737</v>
       </c>
       <c r="D10" t="n">
-        <v>-250.277808773798</v>
+        <v>0.4763115039723276</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.00305878864446229</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.109897755298714</v>
+        <v>0.003466877391179494</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1080232622185239</v>
+        <v>0.005303898850298873</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.134889059797842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05233527855308062</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005297699913004183</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-108.2820332391496</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.0533736122172789</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.05129694488888235</v>
-      </c>
+        <v>0.03243223188999909</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05662523020553833</v>
+        <v>0.1629359035671019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04374878125029984</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005201806890097762</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-92.16964086989177</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.381872559636551e-296</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.04476832012079251</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.0427292423798072</v>
-      </c>
+        <v>0.05383443028451673</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06521172750831912</v>
+        <v>0.1843381019616196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03471699029372898</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005162046204719783</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-74.11876584314584</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.621552076739051e-105</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03572873617487089</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03370524441258708</v>
-      </c>
+        <v>0.06361175434166487</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07424351846488997</v>
+        <v>0.1941154260187677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02850253591111851</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005128592587336577</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-61.33628985276779</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.133990079622996e-90</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.029507724992638</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02749734682959903</v>
-      </c>
+        <v>0.07345948678313644</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.08045797284750045</v>
+        <v>0.2039631584602393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02478757899365764</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005028761309254753</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-53.96381156048692</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.781173694126261e-83</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02577320144233726</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02380195654497801</v>
-      </c>
+        <v>0.08135852527033163</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08417292976496132</v>
+        <v>0.2118621969474345</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02128794727097236</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004864671488712188</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-47.17925026267191</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.095370797773481e-27</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02224140862384734</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02033448591809737</v>
-      </c>
+        <v>0.0823597277918576</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.0876725614876466</v>
+        <v>0.2128633994689604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01966195480794956</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004938050364072822</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-44.91132664135941</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.15702884633548e-21</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02062979819467948</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01869411142121964</v>
-      </c>
+        <v>0.08558545174753857</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08929855395066941</v>
+        <v>0.2160891234246414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01728526868905884</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004934991980357841</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-41.50037415151834</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.436121614549276e-16</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01825251265098833</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.01631802472712935</v>
-      </c>
+        <v>-0.1305036716771028</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.09167524006956011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01438141630854387</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.000491982906973461</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-33.82925893646969</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2.24527364567178e-06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01534568836315069</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01341714425393704</v>
-      </c>
+        <v>0.08810551925987992</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09457909245007509</v>
+        <v>0.2186091909369828</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01029359200990405</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.000496785798031851</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-25.23387158171542</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.002471507953722761</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01126727760932018</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.009319906410487922</v>
-      </c>
+        <v>0.09145259443496112</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09866691674871492</v>
+        <v>0.221956266112064</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007804999193006331</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0004954515929971777</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-20.37622896967524</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.0001404239171864035</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.008776069763746933</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.006833928622265729</v>
-      </c>
+        <v>0.09511167363100388</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.1011555095656126</v>
+        <v>0.2256153453081067</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005597043825504338</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0004928627454326575</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-13.42849232924436</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.001907656970739852</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.006563040331072788</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.004631047319935887</v>
-      </c>
+        <v>0.1003558595593897</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.1033634649331146</v>
+        <v>0.2308595312364926</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004388848270872566</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0004821921479922708</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-10.73811140943864</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.001756928929192083</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.005333930723416871</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.00344376581832826</v>
-      </c>
+        <v>0.1046278495665495</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.1045716604877464</v>
+        <v>0.2351315212436524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.003313540257277623</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004715023783543601</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-7.429094094803114</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01578421645768384</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.004237671079959166</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.002389409434596079</v>
-      </c>
+        <v>0.1074459758916043</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.1056469685013413</v>
+        <v>0.2379496475687071</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001752603023973525</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0004596743620658671</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.1488014289044853</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.1318415694199747</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.0007256879579750394</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.001076208562769744</v>
-      </c>
+        <v>0.1082367023614025</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1091357690610163</v>
+        <v>0.2387403740385053</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1107412569567468</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>22.95591652303889</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2412449286338497</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1128847361815007</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1614194613040.32</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2433884078586035</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1143664532806865</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>66776793541.30552</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>0.2448701249577894</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.05882108239898147</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002512385284316276</v>
-      </c>
-      <c r="D26" t="n">
-        <v>36.42402254494349</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.005712042173967636</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.09470863444223526</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.06353561043380358</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1677815911576004</v>
+      <c r="B29" t="n">
+        <v>0.00587216863494504</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8977966661077819</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0.1363758403120479</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year8final.xlsx
+++ b/hourly datasets/cap_gen_year8final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1305036716771028</v>
+        <v>0.09433620093527373</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09838308259358795</v>
+        <v>0.1029574324638085</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2288867542706908</v>
+        <v>0.1972936333990822</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08021191534245224</v>
+        <v>0.08409957213983206</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2107155870195551</v>
+        <v>0.1784357730751058</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05800513814368875</v>
+        <v>0.06457353709297113</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1885088098207916</v>
+        <v>0.1589097380282449</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03639854486265741</v>
+        <v>0.04573420860271862</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -562,7 +562,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1669022165397602</v>
+        <v>0.1400704095379924</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01147128522944583</v>
+        <v>0.02323290200375484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007874520103771021</v>
+        <v>0.002508239712143095</v>
       </c>
       <c r="D7" t="n">
-        <v>2.399095600353826</v>
+        <v>3.018807889841133</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00755569853725517</v>
+        <v>0.0137343863590084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009926574635608422</v>
+        <v>0.01830203432820247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01301599582328293</v>
+        <v>0.02816376967930696</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1419749569065487</v>
+        <v>0.1175691029390286</v>
       </c>
     </row>
     <row r="8">
@@ -600,25 +600,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009159265819842367</v>
+        <v>0.02301880827754807</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005092183895123672</v>
+        <v>0.002391493838836631</v>
       </c>
       <c r="D8" t="n">
-        <v>3.235317713377257</v>
+        <v>3.962271444860268</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003595006616524872</v>
+        <v>0.00751086606513807</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008159802876804843</v>
+        <v>0.01830931334716203</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01015872876287996</v>
+        <v>0.02772830320793403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1396629374969452</v>
+        <v>0.1173550092128218</v>
       </c>
     </row>
     <row r="9">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005770630788543214</v>
+        <v>0.02250608706600316</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -636,7 +636,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.136274302465646</v>
+        <v>0.1168422880012769</v>
       </c>
     </row>
     <row r="10">
@@ -646,25 +646,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004385388120739157</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0004656168060753737</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4763115039723276</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.00305878864446229</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.003466877391179494</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.005303898850298873</v>
-      </c>
+        <v>0.02118775533242945</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0.134889059797842</v>
+        <v>0.1155239562677032</v>
       </c>
     </row>
     <row r="11">
@@ -674,7 +664,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03243223188999909</v>
+        <v>0.03290212680018208</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -682,7 +672,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1629359035671019</v>
+        <v>0.1272383277354558</v>
       </c>
     </row>
     <row r="12">
@@ -692,7 +682,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05383443028451673</v>
+        <v>0.05522884478585557</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -700,7 +690,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1843381019616196</v>
+        <v>0.1495650457211293</v>
       </c>
     </row>
     <row r="13">
@@ -710,7 +700,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06361175434166487</v>
+        <v>0.06447114349309434</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -718,7 +708,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.1941154260187677</v>
+        <v>0.1588073444283681</v>
       </c>
     </row>
     <row r="14">
@@ -728,7 +718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07345948678313644</v>
+        <v>0.07477726774693204</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -736,7 +726,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2039631584602393</v>
+        <v>0.1691134686822058</v>
       </c>
     </row>
     <row r="15">
@@ -746,7 +736,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08135852527033163</v>
+        <v>0.08379256057805502</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -754,7 +744,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2118621969474345</v>
+        <v>0.1781287615133287</v>
       </c>
     </row>
     <row r="16">
@@ -764,7 +754,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0823597277918576</v>
+        <v>0.08547196115689153</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -772,7 +762,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2128633994689604</v>
+        <v>0.1798081620921653</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +772,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08558545174753857</v>
+        <v>0.08647074735830616</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -790,7 +780,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.2160891234246414</v>
+        <v>0.1808069482935799</v>
       </c>
     </row>
     <row r="18">
@@ -800,7 +790,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1305036716771028</v>
+        <v>-0.09433620093527373</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -818,7 +808,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08810551925987992</v>
+        <v>0.08991652577803222</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -826,7 +816,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2186091909369828</v>
+        <v>0.1842527267133059</v>
       </c>
     </row>
     <row r="20">
@@ -836,7 +826,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09145259443496112</v>
+        <v>0.09289966074206668</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -844,7 +834,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.221956266112064</v>
+        <v>0.1872358616773404</v>
       </c>
     </row>
     <row r="21">
@@ -854,7 +844,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09511167363100388</v>
+        <v>0.09690252412819515</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -862,7 +852,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2256153453081067</v>
+        <v>0.1912387250634689</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +862,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1003558595593897</v>
+        <v>0.1024495846870818</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -880,7 +870,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2308595312364926</v>
+        <v>0.1967857856223555</v>
       </c>
     </row>
     <row r="23">
@@ -890,7 +880,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1046278495665495</v>
+        <v>0.1066218907069758</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -898,7 +888,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.2351315212436524</v>
+        <v>0.2009580916422495</v>
       </c>
     </row>
     <row r="24">
@@ -908,15 +898,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1074459758916043</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+        <v>0.1085586091990521</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.009358680330341335</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1902149455236.314</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05414537341580854</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.09013975715596718</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1269774612421372</v>
+      </c>
       <c r="H24" t="n">
-        <v>0.2379496475687071</v>
+        <v>0.2028948101343259</v>
       </c>
     </row>
     <row r="25">
@@ -926,15 +926,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1082367023614025</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1104705985162107</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.008747141398140494</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1181190483800.336</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05263272765295209</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.093262762906375</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1276784341260466</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2387403740385053</v>
+        <v>0.2048067994514844</v>
       </c>
     </row>
     <row r="26">
@@ -944,21 +954,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1107412569567468</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1132252464187097</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.008672562860085362</v>
       </c>
       <c r="D26" t="n">
-        <v>22.95591652303889</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>1933663733577.018</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05438712232633147</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09617233815460344</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1302781546828162</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2412449286338497</v>
+        <v>0.2075614473539834</v>
       </c>
     </row>
     <row r="27">
@@ -968,21 +982,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1128847361815007</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1154173152168604</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008791485020300619</v>
       </c>
       <c r="D27" t="n">
-        <v>1614194613040.32</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>21.55636275087432</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06375662027712767</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09811727210318105</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1327173583305405</v>
+      </c>
       <c r="H27" t="n">
-        <v>0.2433884078586035</v>
+        <v>0.2097535161521341</v>
       </c>
     </row>
     <row r="28">
@@ -992,21 +1010,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1143664532806865</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.1168375201834414</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.008268580323377113</v>
       </c>
       <c r="D28" t="n">
-        <v>66776793541.30552</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>1628309554361.351</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.06936834759677808</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.100572693624265</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1331023467426175</v>
+      </c>
       <c r="H28" t="n">
-        <v>0.2448701249577894</v>
+        <v>0.2111737211187151</v>
       </c>
     </row>
     <row r="29">
@@ -1016,21 +1038,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00587216863494504</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02085980600167717</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.002164877931745044</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8977966661077819</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>2.025833849636871</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01876538776019561</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0165941283720794</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02512548363127512</v>
+      </c>
       <c r="H29" t="n">
-        <v>0.1363758403120479</v>
+        <v>0.1151960069369509</v>
       </c>
     </row>
   </sheetData>
